--- a/Experiment1/phy1091/data.xlsx
+++ b/Experiment1/phy1091/data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23001"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\programming\python\PhysicsExperiment\Michelson\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\programming\python\PhysicsExperiment\Experiment1\phy1091\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{488CF7D6-4BB5-4F16-AA41-768B906204E7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E8BB779-EA5D-4166-AEFE-3DCAAD8AB5AD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="588" windowWidth="17280" windowHeight="10320" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2892" yWindow="1260" windowWidth="17280" windowHeight="10320" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Michelson" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="16">
   <si>
     <t>外扩次数(x100)</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -66,32 +66,6 @@
   </si>
   <si>
     <t>牛顿环</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="26"/>
-        <color theme="1"/>
-        <rFont val="黑体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>填写说明：</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-1. 牛顿环的级数请根据做实验的实际情况修改，例如选取第10级到第19级，则需将橙色单元格相应修改为10至19
-2. x1, x2(绿色单元格)需填写数据，其他单元格由程序自动计算生成</t>
-    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -123,6 +97,39 @@
   </si>
   <si>
     <t>λ(nm)=</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>所用的光的波长</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>λ(nm)=</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="26"/>
+        <color theme="1"/>
+        <rFont val="黑体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>填写说明：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+1. 牛顿环的级数请根据做实验的实际情况修改，例如选取第10级到第19级，则需将橙色单元格相应修改为10至19</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -169,7 +176,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -185,6 +192,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -236,7 +249,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -248,6 +261,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -545,7 +559,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
@@ -555,14 +569,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -656,169 +670,169 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" t="s">
         <v>12</v>
       </c>
-      <c r="C7" t="s">
-        <v>13</v>
-      </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="B17" s="9"/>
-      <c r="C17" s="9"/>
-      <c r="D17" s="9"/>
-      <c r="E17" s="9"/>
-      <c r="F17" s="9"/>
-      <c r="G17" s="9"/>
-      <c r="H17" s="9"/>
-      <c r="I17" s="9"/>
-      <c r="J17" s="9"/>
+      <c r="A17" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B17" s="10"/>
+      <c r="C17" s="10"/>
+      <c r="D17" s="10"/>
+      <c r="E17" s="10"/>
+      <c r="F17" s="10"/>
+      <c r="G17" s="10"/>
+      <c r="H17" s="10"/>
+      <c r="I17" s="10"/>
+      <c r="J17" s="10"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18" s="9"/>
-      <c r="B18" s="9"/>
-      <c r="C18" s="9"/>
-      <c r="D18" s="9"/>
-      <c r="E18" s="9"/>
-      <c r="F18" s="9"/>
-      <c r="G18" s="9"/>
-      <c r="H18" s="9"/>
-      <c r="I18" s="9"/>
-      <c r="J18" s="9"/>
+      <c r="A18" s="10"/>
+      <c r="B18" s="10"/>
+      <c r="C18" s="10"/>
+      <c r="D18" s="10"/>
+      <c r="E18" s="10"/>
+      <c r="F18" s="10"/>
+      <c r="G18" s="10"/>
+      <c r="H18" s="10"/>
+      <c r="I18" s="10"/>
+      <c r="J18" s="10"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A19" s="9"/>
-      <c r="B19" s="9"/>
-      <c r="C19" s="9"/>
-      <c r="D19" s="9"/>
-      <c r="E19" s="9"/>
-      <c r="F19" s="9"/>
-      <c r="G19" s="9"/>
-      <c r="H19" s="9"/>
-      <c r="I19" s="9"/>
-      <c r="J19" s="9"/>
+      <c r="A19" s="10"/>
+      <c r="B19" s="10"/>
+      <c r="C19" s="10"/>
+      <c r="D19" s="10"/>
+      <c r="E19" s="10"/>
+      <c r="F19" s="10"/>
+      <c r="G19" s="10"/>
+      <c r="H19" s="10"/>
+      <c r="I19" s="10"/>
+      <c r="J19" s="10"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A20" s="9"/>
-      <c r="B20" s="9"/>
-      <c r="C20" s="9"/>
-      <c r="D20" s="9"/>
-      <c r="E20" s="9"/>
-      <c r="F20" s="9"/>
-      <c r="G20" s="9"/>
-      <c r="H20" s="9"/>
-      <c r="I20" s="9"/>
-      <c r="J20" s="9"/>
+      <c r="A20" s="10"/>
+      <c r="B20" s="10"/>
+      <c r="C20" s="10"/>
+      <c r="D20" s="10"/>
+      <c r="E20" s="10"/>
+      <c r="F20" s="10"/>
+      <c r="G20" s="10"/>
+      <c r="H20" s="10"/>
+      <c r="I20" s="10"/>
+      <c r="J20" s="10"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A21" s="9"/>
-      <c r="B21" s="9"/>
-      <c r="C21" s="9"/>
-      <c r="D21" s="9"/>
-      <c r="E21" s="9"/>
-      <c r="F21" s="9"/>
-      <c r="G21" s="9"/>
-      <c r="H21" s="9"/>
-      <c r="I21" s="9"/>
-      <c r="J21" s="9"/>
+      <c r="A21" s="10"/>
+      <c r="B21" s="10"/>
+      <c r="C21" s="10"/>
+      <c r="D21" s="10"/>
+      <c r="E21" s="10"/>
+      <c r="F21" s="10"/>
+      <c r="G21" s="10"/>
+      <c r="H21" s="10"/>
+      <c r="I21" s="10"/>
+      <c r="J21" s="10"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A22" s="9"/>
-      <c r="B22" s="9"/>
-      <c r="C22" s="9"/>
-      <c r="D22" s="9"/>
-      <c r="E22" s="9"/>
-      <c r="F22" s="9"/>
-      <c r="G22" s="9"/>
-      <c r="H22" s="9"/>
-      <c r="I22" s="9"/>
-      <c r="J22" s="9"/>
+      <c r="A22" s="10"/>
+      <c r="B22" s="10"/>
+      <c r="C22" s="10"/>
+      <c r="D22" s="10"/>
+      <c r="E22" s="10"/>
+      <c r="F22" s="10"/>
+      <c r="G22" s="10"/>
+      <c r="H22" s="10"/>
+      <c r="I22" s="10"/>
+      <c r="J22" s="10"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A23" s="9"/>
-      <c r="B23" s="9"/>
-      <c r="C23" s="9"/>
-      <c r="D23" s="9"/>
-      <c r="E23" s="9"/>
-      <c r="F23" s="9"/>
-      <c r="G23" s="9"/>
-      <c r="H23" s="9"/>
-      <c r="I23" s="9"/>
-      <c r="J23" s="9"/>
+      <c r="A23" s="10"/>
+      <c r="B23" s="10"/>
+      <c r="C23" s="10"/>
+      <c r="D23" s="10"/>
+      <c r="E23" s="10"/>
+      <c r="F23" s="10"/>
+      <c r="G23" s="10"/>
+      <c r="H23" s="10"/>
+      <c r="I23" s="10"/>
+      <c r="J23" s="10"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A24" s="9"/>
-      <c r="B24" s="9"/>
-      <c r="C24" s="9"/>
-      <c r="D24" s="9"/>
-      <c r="E24" s="9"/>
-      <c r="F24" s="9"/>
-      <c r="G24" s="9"/>
-      <c r="H24" s="9"/>
-      <c r="I24" s="9"/>
-      <c r="J24" s="9"/>
+      <c r="A24" s="10"/>
+      <c r="B24" s="10"/>
+      <c r="C24" s="10"/>
+      <c r="D24" s="10"/>
+      <c r="E24" s="10"/>
+      <c r="F24" s="10"/>
+      <c r="G24" s="10"/>
+      <c r="H24" s="10"/>
+      <c r="I24" s="10"/>
+      <c r="J24" s="10"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A25" s="9"/>
-      <c r="B25" s="9"/>
-      <c r="C25" s="9"/>
-      <c r="D25" s="9"/>
-      <c r="E25" s="9"/>
-      <c r="F25" s="9"/>
-      <c r="G25" s="9"/>
-      <c r="H25" s="9"/>
-      <c r="I25" s="9"/>
-      <c r="J25" s="9"/>
+      <c r="A25" s="10"/>
+      <c r="B25" s="10"/>
+      <c r="C25" s="10"/>
+      <c r="D25" s="10"/>
+      <c r="E25" s="10"/>
+      <c r="F25" s="10"/>
+      <c r="G25" s="10"/>
+      <c r="H25" s="10"/>
+      <c r="I25" s="10"/>
+      <c r="J25" s="10"/>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A26" s="9"/>
-      <c r="B26" s="9"/>
-      <c r="C26" s="9"/>
-      <c r="D26" s="9"/>
-      <c r="E26" s="9"/>
-      <c r="F26" s="9"/>
-      <c r="G26" s="9"/>
-      <c r="H26" s="9"/>
-      <c r="I26" s="9"/>
-      <c r="J26" s="9"/>
+      <c r="A26" s="10"/>
+      <c r="B26" s="10"/>
+      <c r="C26" s="10"/>
+      <c r="D26" s="10"/>
+      <c r="E26" s="10"/>
+      <c r="F26" s="10"/>
+      <c r="G26" s="10"/>
+      <c r="H26" s="10"/>
+      <c r="I26" s="10"/>
+      <c r="J26" s="10"/>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A27" s="9"/>
-      <c r="B27" s="9"/>
-      <c r="C27" s="9"/>
-      <c r="D27" s="9"/>
-      <c r="E27" s="9"/>
-      <c r="F27" s="9"/>
-      <c r="G27" s="9"/>
-      <c r="H27" s="9"/>
-      <c r="I27" s="9"/>
-      <c r="J27" s="9"/>
+      <c r="A27" s="10"/>
+      <c r="B27" s="10"/>
+      <c r="C27" s="10"/>
+      <c r="D27" s="10"/>
+      <c r="E27" s="10"/>
+      <c r="F27" s="10"/>
+      <c r="G27" s="10"/>
+      <c r="H27" s="10"/>
+      <c r="I27" s="10"/>
+      <c r="J27" s="10"/>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A28" s="9"/>
-      <c r="B28" s="9"/>
-      <c r="C28" s="9"/>
-      <c r="D28" s="9"/>
-      <c r="E28" s="9"/>
-      <c r="F28" s="9"/>
-      <c r="G28" s="9"/>
-      <c r="H28" s="9"/>
-      <c r="I28" s="9"/>
-      <c r="J28" s="9"/>
+      <c r="A28" s="10"/>
+      <c r="B28" s="10"/>
+      <c r="C28" s="10"/>
+      <c r="D28" s="10"/>
+      <c r="E28" s="10"/>
+      <c r="F28" s="10"/>
+      <c r="G28" s="10"/>
+      <c r="H28" s="10"/>
+      <c r="I28" s="10"/>
+      <c r="J28" s="10"/>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A29" s="9"/>
-      <c r="B29" s="9"/>
-      <c r="C29" s="9"/>
-      <c r="D29" s="9"/>
-      <c r="E29" s="9"/>
-      <c r="F29" s="9"/>
-      <c r="G29" s="9"/>
-      <c r="H29" s="9"/>
-      <c r="I29" s="9"/>
-      <c r="J29" s="9"/>
+      <c r="A29" s="10"/>
+      <c r="B29" s="10"/>
+      <c r="C29" s="10"/>
+      <c r="D29" s="10"/>
+      <c r="E29" s="10"/>
+      <c r="F29" s="10"/>
+      <c r="G29" s="10"/>
+      <c r="H29" s="10"/>
+      <c r="I29" s="10"/>
+      <c r="J29" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -835,363 +849,454 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B358692E-FD90-4D8A-8C19-A4C71D99C112}">
   <dimension ref="A1:N31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A17" sqref="A17:N31"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M7" sqref="M7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
-      <c r="H1" s="10"/>
-      <c r="I1" s="10"/>
-      <c r="J1" s="10"/>
-      <c r="K1" s="10"/>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="11"/>
+      <c r="I1" s="11"/>
+      <c r="J1" s="11"/>
+      <c r="K1" s="11"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B2" s="4">
+        <v>15</v>
+      </c>
+      <c r="C2" s="4">
+        <v>14</v>
+      </c>
+      <c r="D2" s="4">
+        <v>13</v>
+      </c>
+      <c r="E2" s="4">
+        <v>12</v>
+      </c>
+      <c r="F2" s="4">
+        <v>11</v>
+      </c>
+      <c r="G2" s="4">
+        <v>10</v>
+      </c>
+      <c r="H2" s="4">
+        <v>9</v>
+      </c>
+      <c r="I2" s="4">
+        <v>8</v>
+      </c>
+      <c r="J2" s="4">
+        <v>7</v>
+      </c>
+      <c r="K2" s="4">
         <v>6</v>
-      </c>
-      <c r="C2" s="4">
-        <v>7</v>
-      </c>
-      <c r="D2" s="4">
-        <v>8</v>
-      </c>
-      <c r="E2" s="4">
-        <v>9</v>
-      </c>
-      <c r="F2" s="4">
-        <v>10</v>
-      </c>
-      <c r="G2" s="4">
-        <v>11</v>
-      </c>
-      <c r="H2" s="4">
-        <v>12</v>
-      </c>
-      <c r="I2" s="4">
-        <v>13</v>
-      </c>
-      <c r="J2" s="4">
-        <v>14</v>
-      </c>
-      <c r="K2" s="4">
-        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
-      <c r="J3" s="2"/>
-      <c r="K3" s="2"/>
+      <c r="B3" s="2">
+        <v>31.786000000000001</v>
+      </c>
+      <c r="C3" s="2">
+        <v>31.875</v>
+      </c>
+      <c r="D3" s="2">
+        <v>31.965</v>
+      </c>
+      <c r="E3" s="2">
+        <v>32.045000000000002</v>
+      </c>
+      <c r="F3" s="2">
+        <v>32.152999999999999</v>
+      </c>
+      <c r="G3" s="2">
+        <v>32.253</v>
+      </c>
+      <c r="H3" s="2">
+        <v>32.362000000000002</v>
+      </c>
+      <c r="I3" s="2">
+        <v>32.479999999999997</v>
+      </c>
+      <c r="J3" s="2">
+        <v>32.612000000000002</v>
+      </c>
+      <c r="K3" s="2">
+        <v>32.738999999999997</v>
+      </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
-      <c r="J4" s="2"/>
-      <c r="K4" s="2"/>
+      <c r="B4" s="2">
+        <v>37.575000000000003</v>
+      </c>
+      <c r="C4" s="2">
+        <v>37.436</v>
+      </c>
+      <c r="D4" s="2">
+        <v>37.311999999999998</v>
+      </c>
+      <c r="E4" s="2">
+        <v>37.218000000000004</v>
+      </c>
+      <c r="F4" s="2">
+        <v>37.119</v>
+      </c>
+      <c r="G4" s="2">
+        <v>37.018000000000001</v>
+      </c>
+      <c r="H4" s="2">
+        <v>36.914999999999999</v>
+      </c>
+      <c r="I4" s="2">
+        <v>36.799999999999997</v>
+      </c>
+      <c r="J4" s="2">
+        <v>36.662999999999997</v>
+      </c>
+      <c r="K4" s="2">
+        <v>36.512</v>
+      </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
-      <c r="K5" s="1"/>
+      <c r="B5" s="2">
+        <v>5.7889999999999997</v>
+      </c>
+      <c r="C5" s="2">
+        <v>5.5609999999999999</v>
+      </c>
+      <c r="D5" s="2">
+        <v>5.3470000000000004</v>
+      </c>
+      <c r="E5" s="2">
+        <v>5.173</v>
+      </c>
+      <c r="F5" s="2">
+        <v>4.9660000000000002</v>
+      </c>
+      <c r="G5" s="2">
+        <v>4.7649999999999997</v>
+      </c>
+      <c r="H5" s="2">
+        <v>4.5529999999999999</v>
+      </c>
+      <c r="I5" s="2">
+        <v>4.32</v>
+      </c>
+      <c r="J5" s="2">
+        <v>4.0510000000000002</v>
+      </c>
+      <c r="K5" s="2">
+        <v>3.7730000000000001</v>
+      </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
-      <c r="J6" s="1"/>
-      <c r="K6" s="1"/>
+      <c r="B6" s="2">
+        <v>33.51</v>
+      </c>
+      <c r="C6" s="2">
+        <v>30.92</v>
+      </c>
+      <c r="D6" s="2">
+        <v>28.59</v>
+      </c>
+      <c r="E6" s="2">
+        <v>26.76</v>
+      </c>
+      <c r="F6" s="2">
+        <v>24.66</v>
+      </c>
+      <c r="G6" s="2">
+        <v>22.71</v>
+      </c>
+      <c r="H6" s="2">
+        <v>20.73</v>
+      </c>
+      <c r="I6" s="2">
+        <v>18.66</v>
+      </c>
+      <c r="J6" s="2">
+        <v>16.41</v>
+      </c>
+      <c r="K6" s="2">
+        <v>14.24</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" s="7">
+        <v>589.29999999999995</v>
+      </c>
     </row>
     <row r="17" spans="1:14" s="5" customFormat="1" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="B17" s="11"/>
-      <c r="C17" s="11"/>
-      <c r="D17" s="11"/>
-      <c r="E17" s="11"/>
-      <c r="F17" s="11"/>
-      <c r="G17" s="11"/>
-      <c r="H17" s="11"/>
-      <c r="I17" s="11"/>
-      <c r="J17" s="11"/>
-      <c r="K17" s="11"/>
-      <c r="L17" s="11"/>
-      <c r="M17" s="11"/>
-      <c r="N17" s="11"/>
+      <c r="A17" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="B17" s="12"/>
+      <c r="C17" s="12"/>
+      <c r="D17" s="12"/>
+      <c r="E17" s="12"/>
+      <c r="F17" s="12"/>
+      <c r="G17" s="12"/>
+      <c r="H17" s="12"/>
+      <c r="I17" s="12"/>
+      <c r="J17" s="12"/>
+      <c r="K17" s="12"/>
+      <c r="L17" s="12"/>
+      <c r="M17" s="12"/>
+      <c r="N17" s="12"/>
     </row>
     <row r="18" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="11"/>
-      <c r="B18" s="11"/>
-      <c r="C18" s="11"/>
-      <c r="D18" s="11"/>
-      <c r="E18" s="11"/>
-      <c r="F18" s="11"/>
-      <c r="G18" s="11"/>
-      <c r="H18" s="11"/>
-      <c r="I18" s="11"/>
-      <c r="J18" s="11"/>
-      <c r="K18" s="11"/>
-      <c r="L18" s="11"/>
-      <c r="M18" s="11"/>
-      <c r="N18" s="11"/>
+      <c r="A18" s="12"/>
+      <c r="B18" s="12"/>
+      <c r="C18" s="12"/>
+      <c r="D18" s="12"/>
+      <c r="E18" s="12"/>
+      <c r="F18" s="12"/>
+      <c r="G18" s="12"/>
+      <c r="H18" s="12"/>
+      <c r="I18" s="12"/>
+      <c r="J18" s="12"/>
+      <c r="K18" s="12"/>
+      <c r="L18" s="12"/>
+      <c r="M18" s="12"/>
+      <c r="N18" s="12"/>
     </row>
     <row r="19" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="11"/>
-      <c r="B19" s="11"/>
-      <c r="C19" s="11"/>
-      <c r="D19" s="11"/>
-      <c r="E19" s="11"/>
-      <c r="F19" s="11"/>
-      <c r="G19" s="11"/>
-      <c r="H19" s="11"/>
-      <c r="I19" s="11"/>
-      <c r="J19" s="11"/>
-      <c r="K19" s="11"/>
-      <c r="L19" s="11"/>
-      <c r="M19" s="11"/>
-      <c r="N19" s="11"/>
+      <c r="A19" s="12"/>
+      <c r="B19" s="12"/>
+      <c r="C19" s="12"/>
+      <c r="D19" s="12"/>
+      <c r="E19" s="12"/>
+      <c r="F19" s="12"/>
+      <c r="G19" s="12"/>
+      <c r="H19" s="12"/>
+      <c r="I19" s="12"/>
+      <c r="J19" s="12"/>
+      <c r="K19" s="12"/>
+      <c r="L19" s="12"/>
+      <c r="M19" s="12"/>
+      <c r="N19" s="12"/>
     </row>
     <row r="20" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="11"/>
-      <c r="B20" s="11"/>
-      <c r="C20" s="11"/>
-      <c r="D20" s="11"/>
-      <c r="E20" s="11"/>
-      <c r="F20" s="11"/>
-      <c r="G20" s="11"/>
-      <c r="H20" s="11"/>
-      <c r="I20" s="11"/>
-      <c r="J20" s="11"/>
-      <c r="K20" s="11"/>
-      <c r="L20" s="11"/>
-      <c r="M20" s="11"/>
-      <c r="N20" s="11"/>
+      <c r="A20" s="12"/>
+      <c r="B20" s="12"/>
+      <c r="C20" s="12"/>
+      <c r="D20" s="12"/>
+      <c r="E20" s="12"/>
+      <c r="F20" s="12"/>
+      <c r="G20" s="12"/>
+      <c r="H20" s="12"/>
+      <c r="I20" s="12"/>
+      <c r="J20" s="12"/>
+      <c r="K20" s="12"/>
+      <c r="L20" s="12"/>
+      <c r="M20" s="12"/>
+      <c r="N20" s="12"/>
     </row>
     <row r="21" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="11"/>
-      <c r="B21" s="11"/>
-      <c r="C21" s="11"/>
-      <c r="D21" s="11"/>
-      <c r="E21" s="11"/>
-      <c r="F21" s="11"/>
-      <c r="G21" s="11"/>
-      <c r="H21" s="11"/>
-      <c r="I21" s="11"/>
-      <c r="J21" s="11"/>
-      <c r="K21" s="11"/>
-      <c r="L21" s="11"/>
-      <c r="M21" s="11"/>
-      <c r="N21" s="11"/>
+      <c r="A21" s="12"/>
+      <c r="B21" s="12"/>
+      <c r="C21" s="12"/>
+      <c r="D21" s="12"/>
+      <c r="E21" s="12"/>
+      <c r="F21" s="12"/>
+      <c r="G21" s="12"/>
+      <c r="H21" s="12"/>
+      <c r="I21" s="12"/>
+      <c r="J21" s="12"/>
+      <c r="K21" s="12"/>
+      <c r="L21" s="12"/>
+      <c r="M21" s="12"/>
+      <c r="N21" s="12"/>
     </row>
     <row r="22" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="11"/>
-      <c r="B22" s="11"/>
-      <c r="C22" s="11"/>
-      <c r="D22" s="11"/>
-      <c r="E22" s="11"/>
-      <c r="F22" s="11"/>
-      <c r="G22" s="11"/>
-      <c r="H22" s="11"/>
-      <c r="I22" s="11"/>
-      <c r="J22" s="11"/>
-      <c r="K22" s="11"/>
-      <c r="L22" s="11"/>
-      <c r="M22" s="11"/>
-      <c r="N22" s="11"/>
+      <c r="A22" s="12"/>
+      <c r="B22" s="12"/>
+      <c r="C22" s="12"/>
+      <c r="D22" s="12"/>
+      <c r="E22" s="12"/>
+      <c r="F22" s="12"/>
+      <c r="G22" s="12"/>
+      <c r="H22" s="12"/>
+      <c r="I22" s="12"/>
+      <c r="J22" s="12"/>
+      <c r="K22" s="12"/>
+      <c r="L22" s="12"/>
+      <c r="M22" s="12"/>
+      <c r="N22" s="12"/>
     </row>
     <row r="23" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="11"/>
-      <c r="B23" s="11"/>
-      <c r="C23" s="11"/>
-      <c r="D23" s="11"/>
-      <c r="E23" s="11"/>
-      <c r="F23" s="11"/>
-      <c r="G23" s="11"/>
-      <c r="H23" s="11"/>
-      <c r="I23" s="11"/>
-      <c r="J23" s="11"/>
-      <c r="K23" s="11"/>
-      <c r="L23" s="11"/>
-      <c r="M23" s="11"/>
-      <c r="N23" s="11"/>
+      <c r="A23" s="12"/>
+      <c r="B23" s="12"/>
+      <c r="C23" s="12"/>
+      <c r="D23" s="12"/>
+      <c r="E23" s="12"/>
+      <c r="F23" s="12"/>
+      <c r="G23" s="12"/>
+      <c r="H23" s="12"/>
+      <c r="I23" s="12"/>
+      <c r="J23" s="12"/>
+      <c r="K23" s="12"/>
+      <c r="L23" s="12"/>
+      <c r="M23" s="12"/>
+      <c r="N23" s="12"/>
     </row>
     <row r="24" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="11"/>
-      <c r="B24" s="11"/>
-      <c r="C24" s="11"/>
-      <c r="D24" s="11"/>
-      <c r="E24" s="11"/>
-      <c r="F24" s="11"/>
-      <c r="G24" s="11"/>
-      <c r="H24" s="11"/>
-      <c r="I24" s="11"/>
-      <c r="J24" s="11"/>
-      <c r="K24" s="11"/>
-      <c r="L24" s="11"/>
-      <c r="M24" s="11"/>
-      <c r="N24" s="11"/>
+      <c r="A24" s="12"/>
+      <c r="B24" s="12"/>
+      <c r="C24" s="12"/>
+      <c r="D24" s="12"/>
+      <c r="E24" s="12"/>
+      <c r="F24" s="12"/>
+      <c r="G24" s="12"/>
+      <c r="H24" s="12"/>
+      <c r="I24" s="12"/>
+      <c r="J24" s="12"/>
+      <c r="K24" s="12"/>
+      <c r="L24" s="12"/>
+      <c r="M24" s="12"/>
+      <c r="N24" s="12"/>
     </row>
     <row r="25" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="11"/>
-      <c r="B25" s="11"/>
-      <c r="C25" s="11"/>
-      <c r="D25" s="11"/>
-      <c r="E25" s="11"/>
-      <c r="F25" s="11"/>
-      <c r="G25" s="11"/>
-      <c r="H25" s="11"/>
-      <c r="I25" s="11"/>
-      <c r="J25" s="11"/>
-      <c r="K25" s="11"/>
-      <c r="L25" s="11"/>
-      <c r="M25" s="11"/>
-      <c r="N25" s="11"/>
+      <c r="A25" s="12"/>
+      <c r="B25" s="12"/>
+      <c r="C25" s="12"/>
+      <c r="D25" s="12"/>
+      <c r="E25" s="12"/>
+      <c r="F25" s="12"/>
+      <c r="G25" s="12"/>
+      <c r="H25" s="12"/>
+      <c r="I25" s="12"/>
+      <c r="J25" s="12"/>
+      <c r="K25" s="12"/>
+      <c r="L25" s="12"/>
+      <c r="M25" s="12"/>
+      <c r="N25" s="12"/>
     </row>
     <row r="26" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="11"/>
-      <c r="B26" s="11"/>
-      <c r="C26" s="11"/>
-      <c r="D26" s="11"/>
-      <c r="E26" s="11"/>
-      <c r="F26" s="11"/>
-      <c r="G26" s="11"/>
-      <c r="H26" s="11"/>
-      <c r="I26" s="11"/>
-      <c r="J26" s="11"/>
-      <c r="K26" s="11"/>
-      <c r="L26" s="11"/>
-      <c r="M26" s="11"/>
-      <c r="N26" s="11"/>
+      <c r="A26" s="12"/>
+      <c r="B26" s="12"/>
+      <c r="C26" s="12"/>
+      <c r="D26" s="12"/>
+      <c r="E26" s="12"/>
+      <c r="F26" s="12"/>
+      <c r="G26" s="12"/>
+      <c r="H26" s="12"/>
+      <c r="I26" s="12"/>
+      <c r="J26" s="12"/>
+      <c r="K26" s="12"/>
+      <c r="L26" s="12"/>
+      <c r="M26" s="12"/>
+      <c r="N26" s="12"/>
     </row>
     <row r="27" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="11"/>
-      <c r="B27" s="11"/>
-      <c r="C27" s="11"/>
-      <c r="D27" s="11"/>
-      <c r="E27" s="11"/>
-      <c r="F27" s="11"/>
-      <c r="G27" s="11"/>
-      <c r="H27" s="11"/>
-      <c r="I27" s="11"/>
-      <c r="J27" s="11"/>
-      <c r="K27" s="11"/>
-      <c r="L27" s="11"/>
-      <c r="M27" s="11"/>
-      <c r="N27" s="11"/>
+      <c r="A27" s="12"/>
+      <c r="B27" s="12"/>
+      <c r="C27" s="12"/>
+      <c r="D27" s="12"/>
+      <c r="E27" s="12"/>
+      <c r="F27" s="12"/>
+      <c r="G27" s="12"/>
+      <c r="H27" s="12"/>
+      <c r="I27" s="12"/>
+      <c r="J27" s="12"/>
+      <c r="K27" s="12"/>
+      <c r="L27" s="12"/>
+      <c r="M27" s="12"/>
+      <c r="N27" s="12"/>
     </row>
     <row r="28" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="11"/>
-      <c r="B28" s="11"/>
-      <c r="C28" s="11"/>
-      <c r="D28" s="11"/>
-      <c r="E28" s="11"/>
-      <c r="F28" s="11"/>
-      <c r="G28" s="11"/>
-      <c r="H28" s="11"/>
-      <c r="I28" s="11"/>
-      <c r="J28" s="11"/>
-      <c r="K28" s="11"/>
-      <c r="L28" s="11"/>
-      <c r="M28" s="11"/>
-      <c r="N28" s="11"/>
+      <c r="A28" s="12"/>
+      <c r="B28" s="12"/>
+      <c r="C28" s="12"/>
+      <c r="D28" s="12"/>
+      <c r="E28" s="12"/>
+      <c r="F28" s="12"/>
+      <c r="G28" s="12"/>
+      <c r="H28" s="12"/>
+      <c r="I28" s="12"/>
+      <c r="J28" s="12"/>
+      <c r="K28" s="12"/>
+      <c r="L28" s="12"/>
+      <c r="M28" s="12"/>
+      <c r="N28" s="12"/>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A29" s="11"/>
-      <c r="B29" s="11"/>
-      <c r="C29" s="11"/>
-      <c r="D29" s="11"/>
-      <c r="E29" s="11"/>
-      <c r="F29" s="11"/>
-      <c r="G29" s="11"/>
-      <c r="H29" s="11"/>
-      <c r="I29" s="11"/>
-      <c r="J29" s="11"/>
-      <c r="K29" s="11"/>
-      <c r="L29" s="11"/>
-      <c r="M29" s="11"/>
-      <c r="N29" s="11"/>
+      <c r="A29" s="12"/>
+      <c r="B29" s="12"/>
+      <c r="C29" s="12"/>
+      <c r="D29" s="12"/>
+      <c r="E29" s="12"/>
+      <c r="F29" s="12"/>
+      <c r="G29" s="12"/>
+      <c r="H29" s="12"/>
+      <c r="I29" s="12"/>
+      <c r="J29" s="12"/>
+      <c r="K29" s="12"/>
+      <c r="L29" s="12"/>
+      <c r="M29" s="12"/>
+      <c r="N29" s="12"/>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A30" s="11"/>
-      <c r="B30" s="11"/>
-      <c r="C30" s="11"/>
-      <c r="D30" s="11"/>
-      <c r="E30" s="11"/>
-      <c r="F30" s="11"/>
-      <c r="G30" s="11"/>
-      <c r="H30" s="11"/>
-      <c r="I30" s="11"/>
-      <c r="J30" s="11"/>
-      <c r="K30" s="11"/>
-      <c r="L30" s="11"/>
-      <c r="M30" s="11"/>
-      <c r="N30" s="11"/>
+      <c r="A30" s="12"/>
+      <c r="B30" s="12"/>
+      <c r="C30" s="12"/>
+      <c r="D30" s="12"/>
+      <c r="E30" s="12"/>
+      <c r="F30" s="12"/>
+      <c r="G30" s="12"/>
+      <c r="H30" s="12"/>
+      <c r="I30" s="12"/>
+      <c r="J30" s="12"/>
+      <c r="K30" s="12"/>
+      <c r="L30" s="12"/>
+      <c r="M30" s="12"/>
+      <c r="N30" s="12"/>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A31" s="11"/>
-      <c r="B31" s="11"/>
-      <c r="C31" s="11"/>
-      <c r="D31" s="11"/>
-      <c r="E31" s="11"/>
-      <c r="F31" s="11"/>
-      <c r="G31" s="11"/>
-      <c r="H31" s="11"/>
-      <c r="I31" s="11"/>
-      <c r="J31" s="11"/>
-      <c r="K31" s="11"/>
-      <c r="L31" s="11"/>
-      <c r="M31" s="11"/>
-      <c r="N31" s="11"/>
+      <c r="A31" s="12"/>
+      <c r="B31" s="12"/>
+      <c r="C31" s="12"/>
+      <c r="D31" s="12"/>
+      <c r="E31" s="12"/>
+      <c r="F31" s="12"/>
+      <c r="G31" s="12"/>
+      <c r="H31" s="12"/>
+      <c r="I31" s="12"/>
+      <c r="J31" s="12"/>
+      <c r="K31" s="12"/>
+      <c r="L31" s="12"/>
+      <c r="M31" s="12"/>
+      <c r="N31" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -1200,6 +1305,7 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
 
